--- a/violations.xlsx
+++ b/violations.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,39 +505,57 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" s="2" t="n">
+        <v>45986</v>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DtC-M12-WP</t>
+          <t>Extnd-mPCIeHS-BTWifi-WT-6218_Mod_Cbl-40CM_kits</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NAV</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SO-20251348</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1034004597</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FEV North America Inc.</t>
+        </is>
+      </c>
       <c r="J2" t="n">
-        <v>-27</v>
+        <v>-1</v>
       </c>
       <c r="K2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -545,7 +563,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extnd-mPCIeHS-BTWifi-WT-6218_Mod_Cbl-40CM_kits</t>
+          <t>Extnd-mPCIeHS_GPS-M800_Mod_Cbl-40CM_kits</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -594,15 +612,15 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45986</v>
+        <v>46003</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extnd-mPCIeHS_GPS-M800_Mod_Cbl-40CM_kits</t>
+          <t>GC-Jetson-NX16G-Orin-Nvidia-JetPack6.0</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -619,43 +637,43 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SO-20251348</t>
+          <t>SO-20251515</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1034004597</t>
+          <t>4500047404</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>FEV North America Inc.</t>
+          <t>Rheinmetall Canada Inc.</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46003</v>
+        <v>45979</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GC-Jetson-NX16G-Orin-Nvidia-JetPack6.0</t>
+          <t>GC-RTX2000Ada-Nvidia</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -668,31 +686,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SO-20251515</t>
+          <t>SO-20251333</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4500047404</t>
+          <t>08000</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Rheinmetall Canada Inc.</t>
+          <t>Monteris Medical</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="K5" t="n">
         <v>-3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>-3</v>
@@ -700,7 +718,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45979</v>
+        <v>45985</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -708,89 +726,89 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NAV</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>SO-20251333</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>08000</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Monteris Medical</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="K6" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-3</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45985</v>
+        <v>46035</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GC-RTX2000Ada-Nvidia</t>
+          <t>M.280-SSD-1TB-PCIe44-TLC5-PN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NAV</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SO-20250641</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PO064732</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>FireFly Automatix, Inc.</t>
+        </is>
+      </c>
       <c r="J7" t="n">
-        <v>-3</v>
+        <v>-42</v>
       </c>
       <c r="K7" t="n">
         <v>-1</v>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46035</v>
+        <v>46066</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -815,7 +833,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SO-20250641</t>
+          <t>SO-20250642</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -829,29 +847,29 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-42</v>
+        <v>-52</v>
       </c>
       <c r="K8" t="n">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="M8" t="n">
-        <v>-1</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46066</v>
+        <v>46000</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M.280-SSD-1TB-PCIe44-TLC5-PN</t>
+          <t>SEMIL-1748GC-10G-L4-BSK(EA)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -864,82 +882,100 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SO-20250642</t>
+          <t>SO-20251390</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>PO064732</t>
+          <t>455802</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>FireFly Automatix, Inc.</t>
+          <t>Navico Group Americas LLC</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-52</v>
+        <v>-1</v>
       </c>
       <c r="K9" t="n">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="L9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" s="2" t="n">
+        <v>46073</v>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>M.280-SSD-1TB-PCIe44-TLC5-PN</t>
+          <t>SSD-1920GB-TLC-IL1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NAV</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>41</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SO-20250332</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>PO208679</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Noah Medical U.S.</t>
+        </is>
+      </c>
       <c r="J10" t="n">
-        <v>-54</v>
+        <v>-22</v>
       </c>
       <c r="K10" t="n">
-        <v>-13</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+        <v>-2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46000</v>
+        <v>46136</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SEMIL-1748GC-10G-L4-BSK(EA)</t>
+          <t>SSD-1920GB-TLC-IL1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -952,39 +988,39 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SO-20251390</t>
+          <t>SO-20250328</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>455802</t>
+          <t>PO208679</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Navico Group Americas LLC</t>
+          <t>Noah Medical U.S.</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-1</v>
+        <v>-32</v>
       </c>
       <c r="K11" t="n">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M11" t="n">
-        <v>-1</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46073</v>
+        <v>46197</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -992,7 +1028,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1009,7 +1045,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SO-20250332</t>
+          <t>SO-20250329</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1023,21 +1059,21 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-22</v>
+        <v>-38</v>
       </c>
       <c r="K12" t="n">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="M12" t="n">
-        <v>-2</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46136</v>
+        <v>46197</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1045,7 +1081,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1062,7 +1098,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SO-20250328</t>
+          <t>SO-20250329</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1076,21 +1112,21 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-32</v>
+        <v>-42</v>
       </c>
       <c r="K13" t="n">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="L13" t="n">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="M13" t="n">
-        <v>-12</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46197</v>
+        <v>46259</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1098,7 +1134,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1115,7 +1151,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SO-20250329</t>
+          <t>SO-20250330</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1129,21 +1165,21 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-38</v>
+        <v>-52</v>
       </c>
       <c r="K14" t="n">
-        <v>-18</v>
+        <v>-32</v>
       </c>
       <c r="L14" t="n">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="M14" t="n">
-        <v>-18</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46197</v>
+        <v>46318</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1151,7 +1187,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1168,7 +1204,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SO-20250329</t>
+          <t>SO-20250331</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1182,29 +1218,29 @@
         </is>
       </c>
       <c r="J15" t="n">
+        <v>-62</v>
+      </c>
+      <c r="K15" t="n">
         <v>-42</v>
       </c>
-      <c r="K15" t="n">
-        <v>-22</v>
-      </c>
       <c r="L15" t="n">
-        <v>-18</v>
+        <v>-32</v>
       </c>
       <c r="M15" t="n">
-        <v>-22</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46259</v>
+        <v>45974</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SSD-1920GB-TLC-IL1</t>
+          <t>i9-13900</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1217,47 +1253,47 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SO-20250330</t>
+          <t>SO-20251524</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>PO208679</t>
+          <t>P96892</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Noah Medical U.S.</t>
+          <t>CoastIPC, Inc.</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-52</v>
+        <v>-39</v>
       </c>
       <c r="K16" t="n">
-        <v>-32</v>
+        <v>-18</v>
       </c>
       <c r="L16" t="n">
-        <v>-22</v>
+        <v>12</v>
       </c>
       <c r="M16" t="n">
-        <v>-32</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46318</v>
+        <v>45975</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SSD-1920GB-TLC-IL1</t>
+          <t>i9-13900</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1270,39 +1306,39 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SO-20250331</t>
+          <t>SO-20251490</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>PO208679</t>
+          <t>7000627756</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Noah Medical U.S.</t>
+          <t>Boston Scientific</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-62</v>
+        <v>-40</v>
       </c>
       <c r="K17" t="n">
-        <v>-42</v>
+        <v>-19</v>
       </c>
       <c r="L17" t="n">
-        <v>-32</v>
+        <v>-18</v>
       </c>
       <c r="M17" t="n">
-        <v>-42</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1310,7 +1346,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-30</v>
+        <v>-1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1327,35 +1363,35 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SO-20251524</t>
+          <t>SO-20251491</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P96892</t>
+          <t>7000627751</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CoastIPC, Inc.</t>
+          <t>Boston Scientific</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-39</v>
+        <v>-41</v>
       </c>
       <c r="K18" t="n">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="L18" t="n">
-        <v>12</v>
+        <v>-19</v>
       </c>
       <c r="M18" t="n">
-        <v>-18</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45975</v>
+        <v>45986</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1380,12 +1416,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SO-20251490</t>
+          <t>SO-20251517</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7000627756</t>
+          <t>7000627451</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1394,21 +1430,21 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="K19" t="n">
-        <v>-19</v>
+        <v>-21</v>
       </c>
       <c r="L19" t="n">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="M19" t="n">
-        <v>-19</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45975</v>
+        <v>45994</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1416,7 +1452,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1433,12 +1469,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SO-20251491</t>
+          <t>SO-20251537</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7000627751</t>
+          <t>7000631101</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1447,158 +1483,17 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-41</v>
+        <v>-44</v>
       </c>
       <c r="K20" t="n">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="L20" t="n">
-        <v>-19</v>
+        <v>-21</v>
       </c>
       <c r="M20" t="n">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45986</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>i9-13900</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>21</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>SO-20251517</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>7000627451</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>-42</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-21</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-20</v>
-      </c>
-      <c r="M21" t="n">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>i9-13900</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>SO-20251537</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>7000631101</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Boston Scientific</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>-44</v>
-      </c>
-      <c r="K22" t="n">
         <v>-23</v>
       </c>
-      <c r="L22" t="n">
-        <v>-21</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>i9-13900</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NAV</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>21</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>-46</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/violations.xlsx
+++ b/violations.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,15 +506,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45986</v>
+        <v>46003</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extnd-mPCIeHS-BTWifi-WT-6218_Mod_Cbl-40CM_kits</t>
+          <t>AC-ISX031-H120</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -531,30 +531,30 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SO-20251348</t>
+          <t>SO-20251515</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1034004597</t>
+          <t>4500047404</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>FEV North America Inc.</t>
+          <t>Rheinmetall Canada Inc.</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="K2" t="n">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>-1</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="3">
@@ -563,7 +563,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extnd-mPCIeHS_GPS-M800_Mod_Cbl-40CM_kits</t>
+          <t>Extnd-mPCIeHS-BTWifi-WT-6218_Mod_Cbl-40CM_kits</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -612,15 +612,15 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46003</v>
+        <v>45986</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GC-Jetson-NX16G-Orin-Nvidia-JetPack6.0</t>
+          <t>Extnd-mPCIeHS_GPS-M800_Mod_Cbl-40CM_kits</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -637,43 +637,43 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SO-20251515</t>
+          <t>SO-20251348</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4500047404</t>
+          <t>1034004597</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Rheinmetall Canada Inc.</t>
+          <t>FEV North America Inc.</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="K4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45979</v>
+        <v>46003</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GC-RTX2000Ada-Nvidia</t>
+          <t>GC-Jetson-NX16G-Orin-Nvidia-JetPack6.0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -686,31 +686,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SO-20251333</t>
+          <t>SO-20251515</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08000</t>
+          <t>4500047404</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Monteris Medical</t>
+          <t>Rheinmetall Canada Inc.</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="K5" t="n">
         <v>-3</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>-3</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45985</v>
+        <v>45979</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -726,97 +726,97 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NAV</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SO-20251333</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>08000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Monteris Medical</t>
+        </is>
+      </c>
       <c r="J6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K6" t="n">
         <v>-3</v>
       </c>
-      <c r="K6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46035</v>
+        <v>45985</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M.280-SSD-1TB-PCIe44-TLC5-PN</t>
+          <t>GC-RTX2000Ada-Nvidia</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NAV</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>41</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>SO-20250641</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PO064732</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>FireFly Automatix, Inc.</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-42</v>
+        <v>-3</v>
       </c>
       <c r="K7" t="n">
         <v>-1</v>
       </c>
-      <c r="L7" t="n">
-        <v>9</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46066</v>
+        <v>45979</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M.280-SSD-1TB-PCIe44-TLC5-PN</t>
+          <t>GC-RTX5080-OC-MSI</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -829,47 +829,47 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SO-20250642</t>
+          <t>SO-20251530</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PO064732</t>
+          <t>NEOU-001</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>FireFly Automatix, Inc.</t>
+          <t>Outrun Robotics</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-52</v>
+        <v>-2</v>
       </c>
       <c r="K8" t="n">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="L8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-11</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46000</v>
+        <v>46035</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEMIL-1748GC-10G-L4-BSK(EA)</t>
+          <t>M.280-SSD-1TB-PCIe44-TLC5-PN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -882,47 +882,47 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SO-20251390</t>
+          <t>SO-20250641</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>455802</t>
+          <t>PO064732</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Navico Group Americas LLC</t>
+          <t>FireFly Automatix, Inc.</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-1</v>
+        <v>-44</v>
       </c>
       <c r="K9" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46073</v>
+        <v>46066</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SSD-1920GB-TLC-IL1</t>
+          <t>M.280-SSD-1TB-PCIe44-TLC5-PN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -935,47 +935,47 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SO-20250332</t>
+          <t>SO-20250642</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>PO208679</t>
+          <t>PO064732</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Noah Medical U.S.</t>
+          <t>FireFly Automatix, Inc.</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-22</v>
+        <v>-54</v>
       </c>
       <c r="K10" t="n">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M10" t="n">
-        <v>-2</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46136</v>
+        <v>46003</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SSD-1920GB-TLC-IL1</t>
+          <t>NRU-161V-AWP</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -988,47 +988,47 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SO-20250328</t>
+          <t>SO-20251515</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>PO208679</t>
+          <t>4500047404</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Noah Medical U.S.</t>
+          <t>Rheinmetall Canada Inc.</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-32</v>
+        <v>-2</v>
       </c>
       <c r="K11" t="n">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
         <v>-2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46197</v>
+        <v>45982</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SSD-1920GB-TLC-IL1</t>
+          <t>Nuvo-9006E-PoE-UL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1041,47 +1041,47 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SO-20250329</t>
+          <t>SO-20251536</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>PO208679</t>
+          <t>00506134</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Noah Medical U.S.</t>
+          <t>LASERAX INC</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-38</v>
+        <v>-5</v>
       </c>
       <c r="K12" t="n">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="L12" t="n">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>-18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46197</v>
+        <v>46000</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SSD-1920GB-TLC-IL1</t>
+          <t>SEMIL-1748GC-10G-L4-BSK(EA)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1094,39 +1094,39 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SO-20250329</t>
+          <t>SO-20251390</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>PO208679</t>
+          <t>455802</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Noah Medical U.S.</t>
+          <t>Navico Group Americas LLC</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-42</v>
+        <v>-1</v>
       </c>
       <c r="K13" t="n">
-        <v>-22</v>
+        <v>-1</v>
       </c>
       <c r="L13" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46259</v>
+        <v>46073</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SO-20250330</t>
+          <t>SO-20250332</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1165,21 +1165,21 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-52</v>
+        <v>-22</v>
       </c>
       <c r="K14" t="n">
-        <v>-32</v>
+        <v>-2</v>
       </c>
       <c r="L14" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-32</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46318</v>
+        <v>46136</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SO-20250331</t>
+          <t>SO-20250328</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-62</v>
+        <v>-32</v>
       </c>
       <c r="K15" t="n">
-        <v>-42</v>
+        <v>-12</v>
       </c>
       <c r="L15" t="n">
-        <v>-32</v>
+        <v>-2</v>
       </c>
       <c r="M15" t="n">
-        <v>-42</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45974</v>
+        <v>46197</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>i9-13900</t>
+          <t>SSD-1920GB-TLC-IL1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-30</v>
+        <v>-6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1253,31 +1253,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SO-20251524</t>
+          <t>SO-20250329</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>P96892</t>
+          <t>PO208679</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>CoastIPC, Inc.</t>
+          <t>Noah Medical U.S.</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-39</v>
+        <v>-38</v>
       </c>
       <c r="K16" t="n">
         <v>-18</v>
       </c>
       <c r="L16" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="M16" t="n">
         <v>-18</v>
@@ -1285,15 +1285,15 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45975</v>
+        <v>46197</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>i9-13900</t>
+          <t>SSD-1920GB-TLC-IL1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1306,47 +1306,47 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SO-20251490</t>
+          <t>SO-20250329</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7000627756</t>
+          <t>PO208679</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Boston Scientific</t>
+          <t>Noah Medical U.S.</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="K17" t="n">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="L17" t="n">
         <v>-18</v>
       </c>
       <c r="M17" t="n">
-        <v>-19</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45975</v>
+        <v>46259</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>i9-13900</t>
+          <t>SSD-1920GB-TLC-IL1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1359,47 +1359,47 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SO-20251491</t>
+          <t>SO-20250330</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7000627751</t>
+          <t>PO208679</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Boston Scientific</t>
+          <t>Noah Medical U.S.</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-41</v>
+        <v>-52</v>
       </c>
       <c r="K18" t="n">
-        <v>-20</v>
+        <v>-32</v>
       </c>
       <c r="L18" t="n">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="M18" t="n">
-        <v>-20</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45986</v>
+        <v>46318</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>i9-13900</t>
+          <t>SSD-1920GB-TLC-IL1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1412,43 +1412,43 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SO-20251517</t>
+          <t>SO-20250331</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7000627451</t>
+          <t>PO208679</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Boston Scientific</t>
+          <t>Noah Medical U.S.</t>
         </is>
       </c>
       <c r="J19" t="n">
+        <v>-62</v>
+      </c>
+      <c r="K19" t="n">
         <v>-42</v>
       </c>
-      <c r="K19" t="n">
-        <v>-21</v>
-      </c>
       <c r="L19" t="n">
-        <v>-20</v>
+        <v>-32</v>
       </c>
       <c r="M19" t="n">
-        <v>-21</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>i9-13900</t>
+          <t>i5-12500</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1465,34 +1465,193 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SO-20251537</t>
+          <t>SO-20251549</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7000631101</t>
+          <t xml:space="preserve"> QTD_SAM_251031</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Boston Scientific</t>
+          <t>SAM Analytic Solutions, LLC</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-44</v>
+        <v>-2</v>
       </c>
       <c r="K20" t="n">
-        <v>-23</v>
+        <v>-2</v>
       </c>
       <c r="L20" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-23</v>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>i5-14500</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-25</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SO-20251532</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>POV45919</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Velasea</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>-25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-17</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>i7-12700</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SO-20251536</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>00506134</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>LASERAX INC</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>i7-12700</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SO-20251359</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>00505857</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>LASERAX INC</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>-7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
